--- a/tables/figure_counts_fullset.xlsx
+++ b/tables/figure_counts_fullset.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99.67326732673267</v>
+        <v>99.73968762515017</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3267326732673267</v>
+        <v>0.2603123748498198</v>
       </c>
     </row>
   </sheetData>
